--- a/Dollarization in Ecuador/data.xlsx
+++ b/Dollarization in Ecuador/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - Ecuador Dollarization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="587" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CCF165F0-BC1E-4AB5-9F76-EF4211BA2E86}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99A27D49-CA2D-4FE5-81CD-3745B331B48D}"/>
   <bookViews>
-    <workbookView xWindow="-3330" yWindow="7965" windowWidth="9675" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="9675" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATA" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>...</t>
   </si>
   <si>
-    <t>Lowesr_10pct</t>
+    <t>Lowest_10pct</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,18 +342,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -937,7 +925,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="13" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8830,29 +8818,29 @@
   <dimension ref="A1:Z432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L421" sqref="L421"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.86328125" style="22"/>
-    <col min="3" max="3" width="12.73046875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="46" customWidth="1"/>
-    <col min="7" max="10" width="12.73046875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="12.73046875" style="47" customWidth="1"/>
-    <col min="12" max="14" width="12.73046875" style="45" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" style="47" customWidth="1"/>
-    <col min="16" max="21" width="12.73046875" style="45" customWidth="1"/>
-    <col min="22" max="23" width="12.73046875" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="8.86328125" style="5"/>
+    <col min="1" max="2" width="8.85546875" style="22"/>
+    <col min="3" max="3" width="12.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="46" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="47" customWidth="1"/>
+    <col min="12" max="14" width="12.7109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="47" customWidth="1"/>
+    <col min="16" max="21" width="12.7109375" style="45" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8917,7 +8905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -8979,7 +8967,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9037,7 +9025,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9095,7 +9083,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -9153,7 +9141,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -9211,7 +9199,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -9269,7 +9257,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -9331,7 +9319,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -9393,7 +9381,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -9451,7 +9439,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -9509,7 +9497,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -9568,7 +9556,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -9637,7 +9625,7 @@
         <v>7.6143428188072182E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -9700,15 +9688,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y14" s="53">
-        <f>E14/E13-1</f>
+        <f t="shared" ref="Y14:Y38" si="1">E14/E13-1</f>
         <v>9.3495309856989062E-2</v>
       </c>
       <c r="Z14" s="53">
-        <f t="shared" ref="Z14:Z40" si="1">F14/F13-1</f>
+        <f t="shared" ref="Z14:Z40" si="2">F14/F13-1</f>
         <v>6.4876063239437842E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -9769,15 +9757,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y15" s="53">
-        <f>E15/E14-1</f>
+        <f t="shared" si="1"/>
         <v>5.4211784559133669E-2</v>
       </c>
       <c r="Z15" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8029208614414971E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -9842,15 +9830,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y16" s="53">
-        <f>E16/E15-1</f>
+        <f t="shared" si="1"/>
         <v>5.0356833188821559E-2</v>
       </c>
       <c r="Z16" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5054722994326557E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -9913,15 +9901,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y17" s="53">
-        <f>E17/E16-1</f>
+        <f t="shared" si="1"/>
         <v>-3.5306070612141194E-2</v>
       </c>
       <c r="Z17" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.0321559531756979E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -9984,15 +9972,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y18" s="53">
-        <f>E18/E17-1</f>
+        <f t="shared" si="1"/>
         <v>4.8512374934175817E-2</v>
       </c>
       <c r="Z18" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.274598369674365E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -10057,15 +10045,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y19" s="53">
-        <f>E19/E18-1</f>
+        <f t="shared" si="1"/>
         <v>2.6618117898173033E-2</v>
       </c>
       <c r="Z19" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8647542707915177E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -10128,15 +10116,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y20" s="53">
-        <f>E20/E19-1</f>
+        <f t="shared" si="1"/>
         <v>-8.3165168470616946E-3</v>
       </c>
       <c r="Z20" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6809541213693278E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -10201,15 +10189,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y21" s="53">
-        <f>E21/E20-1</f>
+        <f t="shared" si="1"/>
         <v>-6.5795153234260328E-2</v>
       </c>
       <c r="Z21" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4551572642892112E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -10274,15 +10262,15 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="Y22" s="53">
-        <f>E22/E21-1</f>
+        <f t="shared" si="1"/>
         <v>-1.531353135313529E-2</v>
       </c>
       <c r="Z22" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8749124154132324E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -10347,15 +10335,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y23" s="53">
-        <f>E23/E22-1</f>
+        <f t="shared" si="1"/>
         <v>-6.7368279930285602E-2</v>
       </c>
       <c r="Z23" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.4470915452735635E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -10420,15 +10408,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y24" s="53">
-        <f>E24/E23-1</f>
+        <f t="shared" si="1"/>
         <v>-0.14676920865377707</v>
       </c>
       <c r="Z24" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.11854776836123282</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -10491,15 +10479,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y25" s="53">
-        <f>E25/E24-1</f>
+        <f t="shared" si="1"/>
         <v>6.4442759666413885E-2</v>
       </c>
       <c r="Z25" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6765455385672254E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -10564,15 +10552,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y26" s="53">
-        <f>E26/E25-1</f>
+        <f t="shared" si="1"/>
         <v>8.1354859132636959E-2</v>
       </c>
       <c r="Z26" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8849375649728382E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -10637,15 +10625,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y27" s="53">
-        <f>E27/E26-1</f>
+        <f t="shared" si="1"/>
         <v>8.5480093676814972E-2</v>
       </c>
       <c r="Z27" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.729475204615821E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -10710,15 +10698,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y28" s="53">
-        <f>E28/E27-1</f>
+        <f t="shared" si="1"/>
         <v>7.0051240560949246E-2</v>
       </c>
       <c r="Z28" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9555473817653812E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -10781,15 +10769,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y29" s="53">
-        <f>E29/E28-1</f>
+        <f t="shared" si="1"/>
         <v>9.0227458887278678E-2</v>
       </c>
       <c r="Z29" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.924238138719919E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -10852,15 +10840,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y30" s="53">
-        <f>E30/E29-1</f>
+        <f t="shared" si="1"/>
         <v>5.6637577298734421E-2</v>
       </c>
       <c r="Z30" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0294773115085549E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -10925,15 +10913,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y31" s="53">
-        <f>E31/E30-1</f>
+        <f t="shared" si="1"/>
         <v>-7.6026910244489376E-2</v>
       </c>
       <c r="Z31" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.8542273329618264E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -10998,15 +10986,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y32" s="53">
-        <f>E32/E31-1</f>
+        <f t="shared" si="1"/>
         <v>0.10459953827028956</v>
       </c>
       <c r="Z32" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3001283223219433E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -11071,15 +11059,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y33" s="53">
-        <f>E33/E32-1</f>
+        <f t="shared" si="1"/>
         <v>7.1972132904608799E-2</v>
       </c>
       <c r="Z33" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7886831385943296E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -11144,15 +11132,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y34" s="53">
-        <f>E34/E33-1</f>
+        <f t="shared" si="1"/>
         <v>-8.0987851822226231E-3</v>
       </c>
       <c r="Z34" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.1452844498181078E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -11217,15 +11205,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y35" s="53">
-        <f>E35/E34-1</f>
+        <f t="shared" si="1"/>
         <v>1.7640239907261712E-3</v>
       </c>
       <c r="Z35" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2656851753707787E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -11290,15 +11278,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y36" s="53">
-        <f>E36/E35-1</f>
+        <f t="shared" si="1"/>
         <v>-4.4073254175890475E-2</v>
       </c>
       <c r="Z36" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.5785805098329071E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -11355,15 +11343,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y37" s="53">
-        <f>E37/E36-1</f>
+        <f t="shared" si="1"/>
         <v>1.6631578947368331E-2</v>
       </c>
       <c r="Z37" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6296642794626282E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -11424,15 +11412,15 @@
         <v>0.875</v>
       </c>
       <c r="Y38" s="53">
-        <f>E38/E37-1</f>
+        <f t="shared" si="1"/>
         <v>-3.2149513356802606E-2</v>
       </c>
       <c r="Z38" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1100638982146434E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -11497,11 +11485,11 @@
       </c>
       <c r="Y39" s="53"/>
       <c r="Z39" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.609282343776175E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -11564,11 +11552,11 @@
       </c>
       <c r="Y40" s="53"/>
       <c r="Z40" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.4673762431443267E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>1</v>
       </c>
@@ -11585,7 +11573,7 @@
         <v>2229</v>
       </c>
       <c r="F41" s="54">
-        <f t="shared" ref="F41:F49" si="2">F42/(E42/E41)</f>
+        <f t="shared" ref="F41:F49" si="3">F42/(E42/E41)</f>
         <v>3836.8662425281736</v>
       </c>
       <c r="G41" s="48">
@@ -11626,7 +11614,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2</v>
       </c>
@@ -11643,7 +11631,7 @@
         <v>2238</v>
       </c>
       <c r="F42" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3852.3583000350168</v>
       </c>
       <c r="G42" s="36">
@@ -11684,7 +11672,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>3</v>
       </c>
@@ -11701,7 +11689,7 @@
         <v>2122</v>
       </c>
       <c r="F43" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3652.6828921690376</v>
       </c>
       <c r="G43" s="36">
@@ -11742,7 +11730,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>4</v>
       </c>
@@ -11759,7 +11747,7 @@
         <v>2060</v>
       </c>
       <c r="F44" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3545.9598293441177</v>
       </c>
       <c r="G44" s="36">
@@ -11800,7 +11788,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>5</v>
       </c>
@@ -11817,7 +11805,7 @@
         <v>2140</v>
       </c>
       <c r="F45" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3683.6670071827243</v>
       </c>
       <c r="G45" s="36">
@@ -11858,7 +11846,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>6</v>
       </c>
@@ -11875,7 +11863,7 @@
         <v>2251</v>
       </c>
       <c r="F46" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3874.7357164337909</v>
       </c>
       <c r="G46" s="36">
@@ -11916,7 +11904,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>7</v>
       </c>
@@ -11933,7 +11921,7 @@
         <v>2206</v>
       </c>
       <c r="F47" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3797.2754288995748</v>
       </c>
       <c r="G47" s="36">
@@ -11974,7 +11962,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>8</v>
       </c>
@@ -11991,7 +11979,7 @@
         <v>2259</v>
       </c>
       <c r="F48" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3888.506434217652</v>
       </c>
       <c r="G48" s="36">
@@ -12032,7 +12020,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>9</v>
       </c>
@@ -12049,7 +12037,7 @@
         <v>2006</v>
       </c>
       <c r="F49" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3453.0074843030588</v>
       </c>
       <c r="G49" s="36">
@@ -12090,7 +12078,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>10</v>
       </c>
@@ -12150,7 +12138,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>11</v>
       </c>
@@ -12207,7 +12195,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>12</v>
       </c>
@@ -12272,7 +12260,7 @@
         <v>3.065381595641159E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>13</v>
       </c>
@@ -12335,15 +12323,15 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="Y53" s="53">
-        <f t="shared" ref="Y53:Y79" si="3">E53/E52-1</f>
+        <f t="shared" ref="Y53:Y77" si="4">E53/E52-1</f>
         <v>2.5503355704697972E-2</v>
       </c>
       <c r="Z53" s="53">
-        <f t="shared" ref="Z53:Z79" si="4">F53/F52-1</f>
+        <f t="shared" ref="Z53:Z79" si="5">F53/F52-1</f>
         <v>-4.7512947249741533E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>14</v>
       </c>
@@ -12400,15 +12388,15 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="Y54" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8394415357766221E-2</v>
       </c>
       <c r="Z54" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.103020110205911E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>15</v>
       </c>
@@ -12469,15 +12457,15 @@
         <v>0.621</v>
       </c>
       <c r="Y55" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4705882352941169E-2</v>
       </c>
       <c r="Z55" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5093435157034438E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>16</v>
       </c>
@@ -12536,15 +12524,15 @@
         <v>0.621</v>
       </c>
       <c r="Y56" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4711917916337818E-2</v>
       </c>
       <c r="Z56" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5421587176478466E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>17</v>
       </c>
@@ -12603,15 +12591,15 @@
         <v>0.621</v>
       </c>
       <c r="Y57" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1204037490987711E-2</v>
       </c>
       <c r="Z57" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2560905703521428E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>18</v>
       </c>
@@ -12676,15 +12664,15 @@
         <v>0.621</v>
       </c>
       <c r="Y58" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6072018500173968E-4</v>
       </c>
       <c r="Z58" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8625049210351472E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>19</v>
       </c>
@@ -12741,15 +12729,15 @@
         <v>0.621</v>
       </c>
       <c r="Y59" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2535490260811084E-3</v>
       </c>
       <c r="Z59" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9629098529818654E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>20</v>
       </c>
@@ -12814,15 +12802,15 @@
         <v>0.621</v>
       </c>
       <c r="Y60" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5062213490504295E-2</v>
       </c>
       <c r="Z60" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.5228262828471228E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>21</v>
       </c>
@@ -12887,15 +12875,15 @@
         <v>0.621</v>
       </c>
       <c r="Y61" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.9787234042553168E-3</v>
       </c>
       <c r="Z61" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4492618471277954E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>22</v>
       </c>
@@ -12960,15 +12948,15 @@
         <v>0.621</v>
       </c>
       <c r="Y62" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4463806970509427E-2</v>
       </c>
       <c r="Z62" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.3570673435797662E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>23</v>
       </c>
@@ -13033,15 +13021,15 @@
         <v>0.621</v>
       </c>
       <c r="Y63" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3038927052666089E-2</v>
       </c>
       <c r="Z63" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7977105494655401E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>24</v>
       </c>
@@ -13098,15 +13086,15 @@
         <v>0.621</v>
       </c>
       <c r="Y64" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9449018366054514E-2</v>
       </c>
       <c r="Z64" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3134905025370465E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>25</v>
       </c>
@@ -13171,15 +13159,15 @@
         <v>0.621</v>
       </c>
       <c r="Y65" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3678868040602836E-2</v>
       </c>
       <c r="Z65" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2984817380683031E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>26</v>
       </c>
@@ -13242,15 +13230,15 @@
         <v>0.621</v>
       </c>
       <c r="Y66" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8650162098437875E-2</v>
       </c>
       <c r="Z66" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5748133064060985E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>27</v>
       </c>
@@ -13313,15 +13301,15 @@
         <v>0.621</v>
       </c>
       <c r="Y67" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.674832962138086E-2</v>
       </c>
       <c r="Z67" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9773420602169143E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>28</v>
       </c>
@@ -13386,15 +13374,15 @@
         <v>0.621</v>
       </c>
       <c r="Y68" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2427497314715401E-2</v>
       </c>
       <c r="Z68" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7813235689442939E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>29</v>
       </c>
@@ -13457,15 +13445,15 @@
         <v>0.621</v>
       </c>
       <c r="Y69" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10896445131375576</v>
       </c>
       <c r="Z69" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3685373998798349E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>30</v>
       </c>
@@ -13530,15 +13518,15 @@
         <v>0.621</v>
       </c>
       <c r="Y70" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9965156794425019E-2</v>
       </c>
       <c r="Z70" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6492255434630287E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>31</v>
       </c>
@@ -13595,15 +13583,15 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="Y71" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3671628326567493E-2</v>
       </c>
       <c r="Z71" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4292778601854303E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>32</v>
       </c>
@@ -13668,15 +13656,15 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="Y72" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10946930280957345</v>
       </c>
       <c r="Z72" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5109750310931886E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>33</v>
       </c>
@@ -13739,15 +13727,15 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="Y73" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0705308572500432E-2</v>
       </c>
       <c r="Z73" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4536976764347527E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>34</v>
       </c>
@@ -13812,15 +13800,15 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="Y74" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9567411679884543E-2</v>
       </c>
       <c r="Z74" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.127573478018399E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>35</v>
       </c>
@@ -13883,15 +13871,15 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="Y75" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.6975785677485522E-3</v>
       </c>
       <c r="Z75" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8437572281814436E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>36</v>
       </c>
@@ -13954,15 +13942,15 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="Y76" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1984785615491118E-2</v>
       </c>
       <c r="Z76" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2827187106136968E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>37</v>
       </c>
@@ -14025,15 +14013,15 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="Y77" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4962305243759531E-2</v>
       </c>
       <c r="Z77" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7320399422645636E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>38</v>
       </c>
@@ -14098,11 +14086,11 @@
       </c>
       <c r="Y78" s="53"/>
       <c r="Z78" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6960652962193299E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>39</v>
       </c>
@@ -14165,11 +14153,11 @@
       </c>
       <c r="Y79" s="53"/>
       <c r="Z79" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7521559420484287E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -14186,7 +14174,7 @@
         <v>5052</v>
       </c>
       <c r="F80" s="54">
-        <f t="shared" ref="F80:F88" si="5">F81/(E81/E80)</f>
+        <f t="shared" ref="F80:F88" si="6">F81/(E81/E80)</f>
         <v>9252.0005605621227</v>
       </c>
       <c r="G80" s="36">
@@ -14225,7 +14213,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>2</v>
       </c>
@@ -14242,7 +14230,7 @@
         <v>5133</v>
       </c>
       <c r="F81" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9400.3402370081894</v>
       </c>
       <c r="G81" s="36">
@@ -14287,7 +14275,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>3</v>
       </c>
@@ -14304,7 +14292,7 @@
         <v>5162</v>
       </c>
       <c r="F82" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9453.4495038839432</v>
       </c>
       <c r="G82" s="36">
@@ -14349,7 +14337,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>4</v>
       </c>
@@ -14366,7 +14354,7 @@
         <v>4987</v>
       </c>
       <c r="F83" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9132.962548599231</v>
       </c>
       <c r="G83" s="36">
@@ -14411,7 +14399,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>5</v>
       </c>
@@ -14428,7 +14416,7 @@
         <v>5041</v>
       </c>
       <c r="F84" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9231.8556662299434</v>
       </c>
       <c r="G84" s="36">
@@ -14473,7 +14461,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>6</v>
       </c>
@@ -14490,7 +14478,7 @@
         <v>5207</v>
       </c>
       <c r="F85" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9535.8604352428702</v>
       </c>
       <c r="G85" s="36">
@@ -14535,7 +14523,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>7</v>
       </c>
@@ -14552,7 +14540,7 @@
         <v>5835</v>
       </c>
       <c r="F86" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10685.950766207441</v>
       </c>
       <c r="G86" s="36">
@@ -14597,7 +14585,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>8</v>
       </c>
@@ -14614,7 +14602,7 @@
         <v>5880</v>
       </c>
       <c r="F87" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10768.361697566366</v>
       </c>
       <c r="G87" s="36">
@@ -14659,7 +14647,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>9</v>
       </c>
@@ -14676,7 +14664,7 @@
         <v>5792</v>
       </c>
       <c r="F88" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10607.20254290891</v>
       </c>
       <c r="G88" s="36">
@@ -14721,7 +14709,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>10</v>
       </c>
@@ -14783,7 +14771,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>11</v>
       </c>
@@ -14846,7 +14834,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>12</v>
       </c>
@@ -14909,7 +14897,7 @@
         <v>-2.584621999512593E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>13</v>
       </c>
@@ -14970,15 +14958,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y92" s="53">
-        <f t="shared" ref="Y92:Y118" si="6">E92/E91-1</f>
+        <f t="shared" ref="Y92:Y116" si="7">E92/E91-1</f>
         <v>1.6607354685646447E-2</v>
       </c>
       <c r="Z92" s="53">
-        <f t="shared" ref="Z92:Z118" si="7">F92/F91-1</f>
+        <f t="shared" ref="Z92:Z118" si="8">F92/F91-1</f>
         <v>-2.1518520291579746E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>14</v>
       </c>
@@ -15041,15 +15029,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y93" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0010001666944479E-2</v>
       </c>
       <c r="Z93" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9370671599585174E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>15</v>
       </c>
@@ -15106,15 +15094,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y94" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10882214184620231</v>
       </c>
       <c r="Z94" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6275849177160424E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>16</v>
       </c>
@@ -15179,15 +15167,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y95" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14494397957736482</v>
       </c>
       <c r="Z95" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7493751498256724E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>17</v>
       </c>
@@ -15252,15 +15240,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y96" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17676204632726367</v>
       </c>
       <c r="Z96" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.9645635305836109E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>18</v>
       </c>
@@ -15323,15 +15311,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y97" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.9894736842105316E-2</v>
       </c>
       <c r="Z97" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7906107983346686E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>19</v>
       </c>
@@ -15394,15 +15382,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y98" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.0433066549720462E-2</v>
       </c>
       <c r="Z98" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.1843665702486073E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>20</v>
       </c>
@@ -15467,15 +15455,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y99" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.4105761459415804E-2</v>
       </c>
       <c r="Z99" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.0091396253963381E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>21</v>
       </c>
@@ -15532,15 +15520,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y100" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4691387848774244E-3</v>
       </c>
       <c r="Z100" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.91182644263146E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>22</v>
       </c>
@@ -15605,15 +15593,15 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="Y101" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.5392015392015401E-2</v>
       </c>
       <c r="Z101" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3369738416457722E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>23</v>
       </c>
@@ -15678,15 +15666,15 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="Y102" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.442598925256334E-4</v>
       </c>
       <c r="Z102" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7094743888001807E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>24</v>
       </c>
@@ -15751,15 +15739,15 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="Y103" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.8559218559218604E-2</v>
       </c>
       <c r="Z103" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.229364921134235E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>25</v>
       </c>
@@ -15824,15 +15812,15 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="Y104" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0681761632246793E-2</v>
       </c>
       <c r="Z104" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4970770782358338E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>26</v>
       </c>
@@ -15897,15 +15885,15 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="Y105" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2755528989838689E-2</v>
       </c>
       <c r="Z105" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0263074041156903E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>27</v>
       </c>
@@ -15970,15 +15958,15 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="Y106" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9291584674152205E-2</v>
       </c>
       <c r="Z106" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8347540947357253E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>28</v>
       </c>
@@ -16043,15 +16031,15 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="Y107" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10081510081510081</v>
       </c>
       <c r="Z107" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9747046742876444E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>29</v>
       </c>
@@ -16116,15 +16104,15 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="Y108" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10600155884645357</v>
       </c>
       <c r="Z108" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0544095684665438E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>30</v>
       </c>
@@ -16189,15 +16177,15 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="Y109" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0655391120507414E-2</v>
       </c>
       <c r="Z109" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.0819438957123229E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>31</v>
       </c>
@@ -16254,15 +16242,15 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="Y110" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14683760683760694</v>
       </c>
       <c r="Z110" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.5243728043009597E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>32</v>
       </c>
@@ -16327,15 +16315,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y111" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10530630496348192</v>
       </c>
       <c r="Z111" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0264068728116156E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>33</v>
       </c>
@@ -16400,15 +16388,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y112" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.6979974377991987E-3</v>
       </c>
       <c r="Z112" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0145097747663145E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>34</v>
       </c>
@@ -16473,15 +16461,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y113" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6392327574479726E-2</v>
       </c>
       <c r="Z113" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1089307189225748E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>35</v>
       </c>
@@ -16546,15 +16534,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y114" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.8966740279730052E-3</v>
       </c>
       <c r="Z114" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.5247321954036126E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>36</v>
       </c>
@@ -16617,15 +16605,15 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Y115" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.723440134907241E-2</v>
       </c>
       <c r="Z115" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.3515912667162482E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>37</v>
       </c>
@@ -16688,15 +16676,15 @@
         <v>0.9</v>
       </c>
       <c r="Y116" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12343109839370492</v>
       </c>
       <c r="Z116" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.098606982443509E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>38</v>
       </c>
@@ -16761,11 +16749,11 @@
       </c>
       <c r="Y117" s="53"/>
       <c r="Z117" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5138194508311784E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>39</v>
       </c>
@@ -16828,11 +16816,11 @@
       </c>
       <c r="Y118" s="53"/>
       <c r="Z118" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2807790722055863E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>1</v>
       </c>
@@ -16849,7 +16837,7 @@
         <v>7041</v>
       </c>
       <c r="F119" s="54">
-        <f t="shared" ref="F119:F127" si="8">F120/(E120/E119)</f>
+        <f t="shared" ref="F119:F127" si="9">F120/(E120/E119)</f>
         <v>8304.6192556659371</v>
       </c>
       <c r="G119" s="36">
@@ -16890,7 +16878,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>2</v>
       </c>
@@ -16907,7 +16895,7 @@
         <v>7282</v>
       </c>
       <c r="F120" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8588.8705325606243</v>
       </c>
       <c r="G120" s="36">
@@ -16948,7 +16936,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>3</v>
       </c>
@@ -16965,7 +16953,7 @@
         <v>6251</v>
       </c>
       <c r="F121" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7372.8412110733952</v>
       </c>
       <c r="G121" s="36">
@@ -17006,7 +16994,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>4</v>
       </c>
@@ -17023,7 +17011,7 @@
         <v>5957</v>
       </c>
       <c r="F122" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7026.0782425794614</v>
       </c>
       <c r="G122" s="36">
@@ -17064,7 +17052,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>5</v>
       </c>
@@ -17081,7 +17069,7 @@
         <v>6069</v>
       </c>
       <c r="F123" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7158.1784210533406</v>
       </c>
       <c r="G123" s="36">
@@ -17122,7 +17110,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>6</v>
       </c>
@@ -17139,7 +17127,7 @@
         <v>6006</v>
       </c>
       <c r="F124" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7083.8720706617833</v>
       </c>
       <c r="G124" s="36">
@@ -17178,7 +17166,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>7</v>
       </c>
@@ -17195,7 +17183,7 @@
         <v>6179</v>
       </c>
       <c r="F125" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7287.9196677687587</v>
       </c>
       <c r="G125" s="36">
@@ -17236,7 +17224,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>8</v>
       </c>
@@ -17253,7 +17241,7 @@
         <v>6507</v>
       </c>
       <c r="F126" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7674.7844761565484</v>
       </c>
       <c r="G126" s="36">
@@ -17296,7 +17284,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>9</v>
       </c>
@@ -17313,7 +17301,7 @@
         <v>7025</v>
       </c>
       <c r="F127" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8285.7478015982415</v>
       </c>
       <c r="G127" s="36">
@@ -17354,7 +17342,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>10</v>
       </c>
@@ -17412,7 +17400,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>11</v>
       </c>
@@ -17475,7 +17463,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>12</v>
       </c>
@@ -17540,7 +17528,7 @@
         <v>6.041889974888992E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>13</v>
       </c>
@@ -17603,15 +17591,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y131" s="53">
-        <f t="shared" ref="Y131:Y157" si="9">E131/E130-1</f>
+        <f t="shared" ref="Y131:Y155" si="10">E131/E130-1</f>
         <v>0.11437133225121743</v>
       </c>
       <c r="Z131" s="53">
-        <f t="shared" ref="Z131:Z157" si="10">F131/F130-1</f>
+        <f t="shared" ref="Z131:Z157" si="11">F131/F130-1</f>
         <v>9.3471715537516875E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>14</v>
       </c>
@@ -17668,15 +17656,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y132" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0336134453781591E-2</v>
       </c>
       <c r="Z132" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.8680837733668492E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>15</v>
       </c>
@@ -17741,15 +17729,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y133" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.7312870220786136E-2</v>
       </c>
       <c r="Z133" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3887012377715298E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>16</v>
       </c>
@@ -17808,15 +17796,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y134" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12300706357214941</v>
       </c>
       <c r="Z134" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3082877350544972E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>17</v>
       </c>
@@ -17881,15 +17869,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y135" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0487015904393946E-2</v>
       </c>
       <c r="Z135" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2909765072829185E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>18</v>
       </c>
@@ -17948,15 +17936,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y136" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.9812450471074001E-3</v>
       </c>
       <c r="Z136" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9831638476177451E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>19</v>
       </c>
@@ -18021,15 +18009,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y137" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.0856968321843139E-2</v>
       </c>
       <c r="Z137" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9906317496785073E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>20</v>
       </c>
@@ -18088,15 +18076,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y138" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.5347593582887655E-2</v>
       </c>
       <c r="Z138" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.6275995436294766E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>21</v>
       </c>
@@ -18161,15 +18149,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y139" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8681951127464744E-2</v>
       </c>
       <c r="Z139" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0942873535426694E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>22</v>
       </c>
@@ -18228,15 +18216,15 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="Y140" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.4032834999541444E-2</v>
       </c>
       <c r="Z140" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.146189438309043E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>23</v>
       </c>
@@ -18295,15 +18283,15 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="Y141" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.3023255813953138E-3</v>
       </c>
       <c r="Z141" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0006176749395532E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>24</v>
       </c>
@@ -18368,15 +18356,15 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="Y142" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7630402384500661E-2</v>
       </c>
       <c r="Z142" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0058303567424449E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>25</v>
       </c>
@@ -18435,15 +18423,15 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="Y143" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.788150807899453E-2</v>
       </c>
       <c r="Z143" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1028393666756608E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>26</v>
       </c>
@@ -18502,15 +18490,15 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="Y144" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.8192920207937906E-2</v>
       </c>
       <c r="Z144" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6467008698028112E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>27</v>
       </c>
@@ -18575,15 +18563,15 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="Y145" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16364865880231427</v>
       </c>
       <c r="Z145" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.200451341657919E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>28</v>
       </c>
@@ -18642,15 +18630,15 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="Y146" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.843610770323493E-2</v>
       </c>
       <c r="Z146" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.7903393889059389E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>29</v>
       </c>
@@ -18709,15 +18697,15 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="Y147" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.5078086871644709E-2</v>
       </c>
       <c r="Z147" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4261971717177921E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>30</v>
       </c>
@@ -18782,15 +18770,15 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="Y148" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8396661819561952E-3</v>
       </c>
       <c r="Z148" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.6014468979119965E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>31</v>
       </c>
@@ -18849,15 +18837,15 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="Y149" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13386864061225778</v>
       </c>
       <c r="Z149" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7502238139562891E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>32</v>
       </c>
@@ -18922,15 +18910,15 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="Y150" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.0179806362378878E-2</v>
       </c>
       <c r="Z150" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.0577879202330367E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>33</v>
       </c>
@@ -18989,15 +18977,15 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="Y151" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9835067241816855E-2</v>
       </c>
       <c r="Z151" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.3092175035857494E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>34</v>
       </c>
@@ -19062,15 +19050,15 @@
         <v>0.86</v>
       </c>
       <c r="Y152" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.543916469280207E-3</v>
       </c>
       <c r="Z152" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0315258904608067E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>35</v>
       </c>
@@ -19129,15 +19117,15 @@
         <v>0.86</v>
       </c>
       <c r="Y153" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4869351811751086E-2</v>
       </c>
       <c r="Z153" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.925563865990636E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>36</v>
       </c>
@@ -19200,15 +19188,15 @@
         <v>0.871</v>
       </c>
       <c r="Y154" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1853959222380306E-2</v>
       </c>
       <c r="Z154" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1059443453409035E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>37</v>
       </c>
@@ -19267,15 +19255,15 @@
         <v>0.871</v>
       </c>
       <c r="Y155" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9671977507028675E-3</v>
       </c>
       <c r="Z155" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3208871945666907E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>38</v>
       </c>
@@ -19340,11 +19328,11 @@
       </c>
       <c r="Y156" s="53"/>
       <c r="Z156" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.5399544919079133E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>39</v>
       </c>
@@ -19405,11 +19393,11 @@
       </c>
       <c r="Y157" s="53"/>
       <c r="Z157" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.5876764943491226E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>1</v>
       </c>
@@ -19426,7 +19414,7 @@
         <v>6825</v>
       </c>
       <c r="F158" s="54">
-        <f t="shared" ref="F158:F166" si="11">F159/(E159/E158)</f>
+        <f t="shared" ref="F158:F166" si="12">F159/(E159/E158)</f>
         <v>7803.3191496012905</v>
       </c>
       <c r="G158" s="48">
@@ -19467,7 +19455,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>2</v>
       </c>
@@ -19484,7 +19472,7 @@
         <v>6708</v>
       </c>
       <c r="F159" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7669.5479641795546</v>
       </c>
       <c r="G159" s="36">
@@ -19525,7 +19513,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>3</v>
       </c>
@@ -19542,7 +19530,7 @@
         <v>6621</v>
       </c>
       <c r="F160" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7570.0770827121096</v>
       </c>
       <c r="G160" s="36">
@@ -19583,7 +19571,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>4</v>
       </c>
@@ -19600,7 +19588,7 @@
         <v>6447</v>
       </c>
       <c r="F161" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7371.1353197772187</v>
       </c>
       <c r="G161" s="36">
@@ -19641,7 +19629,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>5</v>
       </c>
@@ -19658,7 +19646,7 @@
         <v>6421</v>
       </c>
       <c r="F162" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7341.4083896835</v>
       </c>
       <c r="G162" s="36">
@@ -19699,7 +19687,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>6</v>
       </c>
@@ -19716,7 +19704,7 @@
         <v>6331</v>
       </c>
       <c r="F163" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7238.5074778206263</v>
       </c>
       <c r="G163" s="36">
@@ -19757,7 +19745,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>7</v>
       </c>
@@ -19774,7 +19762,7 @@
         <v>6592</v>
       </c>
       <c r="F164" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7536.9201222229613</v>
       </c>
       <c r="G164" s="36">
@@ -19815,7 +19803,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>8</v>
       </c>
@@ -19832,7 +19820,7 @@
         <v>6501</v>
       </c>
       <c r="F165" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7432.875866894944</v>
       </c>
       <c r="G165" s="36">
@@ -19873,7 +19861,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>9</v>
       </c>
@@ -19890,7 +19878,7 @@
         <v>6587</v>
       </c>
       <c r="F166" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7531.2034048972455</v>
       </c>
       <c r="G166" s="36">
@@ -19929,7 +19917,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>10</v>
       </c>
@@ -19985,7 +19973,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>11</v>
       </c>
@@ -20040,7 +20028,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>12</v>
       </c>
@@ -20107,7 +20095,7 @@
         <v>2.0207322220988644E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>13</v>
       </c>
@@ -20168,15 +20156,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y170" s="53">
-        <f t="shared" ref="Y170:Y196" si="12">E170/E169-1</f>
+        <f t="shared" ref="Y170:Y194" si="13">E170/E169-1</f>
         <v>3.8519637462235634E-2</v>
       </c>
       <c r="Z170" s="53">
-        <f t="shared" ref="Z170:Z196" si="13">F170/F169-1</f>
+        <f t="shared" ref="Z170:Z196" si="14">F170/F169-1</f>
         <v>2.0372358350265518E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>14</v>
       </c>
@@ -20233,15 +20221,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y171" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.2909090909091008E-2</v>
       </c>
       <c r="Z171" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3771655547891299E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>15</v>
       </c>
@@ -20302,15 +20290,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y172" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.2217573221757334E-2</v>
       </c>
       <c r="Z172" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8388540131802262E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>16</v>
       </c>
@@ -20369,15 +20357,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y173" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.6482907715173587E-2</v>
       </c>
       <c r="Z173" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2889408874890114E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>17</v>
       </c>
@@ -20440,15 +20428,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y174" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.7506910622614225E-2</v>
       </c>
       <c r="Z174" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5305283754992747E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>18</v>
       </c>
@@ -20509,15 +20497,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y175" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.3590568060022381E-3</v>
       </c>
       <c r="Z175" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6552308075915789E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>19</v>
       </c>
@@ -20576,15 +20564,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y176" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.8379530916844318E-2</v>
       </c>
       <c r="Z176" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1.109272656278093E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>20</v>
       </c>
@@ -20649,15 +20637,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y177" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.4855875831485554E-2</v>
       </c>
       <c r="Z177" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.7641894642619596E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>21</v>
       </c>
@@ -20720,15 +20708,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y178" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6597510373443924E-2</v>
       </c>
       <c r="Z178" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2873679481892442E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>22</v>
       </c>
@@ -20791,15 +20779,15 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="Y179" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.8513119533527567E-3</v>
       </c>
       <c r="Z179" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6759723630257533E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>23</v>
       </c>
@@ -20864,15 +20852,15 @@
         <v>0.77</v>
       </c>
       <c r="Y180" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8436811977101701E-3</v>
       </c>
       <c r="Z180" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5071590777642268E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>24</v>
       </c>
@@ -20937,15 +20925,15 @@
         <v>0.77</v>
       </c>
       <c r="Y181" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9865614957639499E-2</v>
       </c>
       <c r="Z181" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3939395488271842E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>25</v>
       </c>
@@ -21010,15 +20998,15 @@
         <v>0.77</v>
       </c>
       <c r="Y182" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6952162704096292E-2</v>
       </c>
       <c r="Z182" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8507929010833886E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>26</v>
       </c>
@@ -21083,15 +21071,15 @@
         <v>0.77</v>
       </c>
       <c r="Y183" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.1878453038674008E-2</v>
       </c>
       <c r="Z183" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3027798186739732E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>27</v>
       </c>
@@ -21148,15 +21136,15 @@
         <v>0.77</v>
       </c>
       <c r="Y184" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.2856399583767004E-2</v>
       </c>
       <c r="Z184" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.4121283902820227E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>28</v>
       </c>
@@ -21215,15 +21203,15 @@
         <v>0.77</v>
       </c>
       <c r="Y185" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.8288288288288275E-2</v>
       </c>
       <c r="Z185" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5377202934145942E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>29</v>
       </c>
@@ -21288,15 +21276,15 @@
         <v>0.77</v>
       </c>
       <c r="Y186" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7704194260485693E-2</v>
       </c>
       <c r="Z186" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0496974491094777E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>30</v>
       </c>
@@ -21361,15 +21349,15 @@
         <v>0.77</v>
       </c>
       <c r="Y187" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0909463334699616E-3</v>
       </c>
       <c r="Z187" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5765811600801989E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>31</v>
       </c>
@@ -21434,15 +21422,15 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="Y188" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8736157675505458E-2</v>
       </c>
       <c r="Z188" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.256962621260473E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>32</v>
       </c>
@@ -21507,15 +21495,15 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="Y189" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1101902429836128</v>
       </c>
       <c r="Z189" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3270700656098189E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>33</v>
       </c>
@@ -21580,15 +21568,15 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="Y190" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4601289446895214E-2</v>
       </c>
       <c r="Z190" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9700523615931118E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>34</v>
       </c>
@@ -21653,15 +21641,15 @@
         <v>0.69</v>
       </c>
       <c r="Y191" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7800960423911327E-2</v>
       </c>
       <c r="Z191" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.6213970244089566E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>35</v>
       </c>
@@ -21726,15 +21714,15 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="Y192" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.6519157243960034E-2</v>
       </c>
       <c r="Z192" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.6760124480809786E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>36</v>
       </c>
@@ -21797,15 +21785,15 @@
         <v>0.71</v>
       </c>
       <c r="Y193" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8939694112053207E-2</v>
       </c>
       <c r="Z193" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7611840566353232E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>37</v>
       </c>
@@ -21868,15 +21856,15 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="Y194" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1661222585160953E-3</v>
       </c>
       <c r="Z194" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.0833138393608941E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>38</v>
       </c>
@@ -21941,11 +21929,11 @@
       </c>
       <c r="Y195" s="53"/>
       <c r="Z195" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1.6098039570617839E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="18">
         <v>39</v>
       </c>
@@ -22008,11 +21996,11 @@
       </c>
       <c r="Y196" s="53"/>
       <c r="Z196" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0247148561207897E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>1</v>
       </c>
@@ -22029,7 +22017,7 @@
         <v>8012</v>
       </c>
       <c r="F197" s="54">
-        <f t="shared" ref="F197:F205" si="14">F198/(E198/E197)</f>
+        <f t="shared" ref="F197:F205" si="15">F198/(E198/E197)</f>
         <v>7809.7433240184364</v>
       </c>
       <c r="G197" s="36">
@@ -22068,7 +22056,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>2</v>
       </c>
@@ -22085,7 +22073,7 @@
         <v>7739</v>
       </c>
       <c r="F198" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7543.6349955789665</v>
       </c>
       <c r="G198" s="36">
@@ -22128,7 +22116,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>3</v>
       </c>
@@ -22145,7 +22133,7 @@
         <v>7074</v>
       </c>
       <c r="F199" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6895.422400662309</v>
       </c>
       <c r="G199" s="36">
@@ -22184,7 +22172,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>4</v>
       </c>
@@ -22201,7 +22189,7 @@
         <v>6974</v>
       </c>
       <c r="F200" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6797.9468224793527</v>
       </c>
       <c r="G200" s="36">
@@ -22240,7 +22228,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>5</v>
       </c>
@@ -22257,7 +22245,7 @@
         <v>7256</v>
       </c>
       <c r="F201" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7072.8279529552883</v>
       </c>
       <c r="G201" s="36">
@@ -22296,7 +22284,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>6</v>
       </c>
@@ -22313,7 +22301,7 @@
         <v>7245</v>
       </c>
       <c r="F202" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7062.1056393551635</v>
       </c>
       <c r="G202" s="36">
@@ -22352,7 +22340,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>7</v>
       </c>
@@ -22369,7 +22357,7 @@
         <v>7800</v>
       </c>
       <c r="F203" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7603.095098270569</v>
       </c>
       <c r="G203" s="36">
@@ -22412,7 +22400,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>8</v>
       </c>
@@ -22429,7 +22417,7 @@
         <v>7568</v>
       </c>
       <c r="F204" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7376.9517568861111</v>
       </c>
       <c r="G204" s="36">
@@ -22468,7 +22456,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>9</v>
       </c>
@@ -22485,7 +22473,7 @@
         <v>7564</v>
       </c>
       <c r="F205" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7373.0527337587928</v>
       </c>
       <c r="G205" s="36">
@@ -22524,7 +22512,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>10</v>
       </c>
@@ -22584,7 +22572,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>11</v>
       </c>
@@ -22647,7 +22635,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>12</v>
       </c>
@@ -22716,7 +22704,7 @@
         <v>-3.7401913403830589E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>13</v>
       </c>
@@ -22779,15 +22767,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y209" s="53">
-        <f t="shared" ref="Y209:Y235" si="15">E209/E208-1</f>
+        <f t="shared" ref="Y209:Y233" si="16">E209/E208-1</f>
         <v>5.87125974352527E-2</v>
       </c>
       <c r="Z209" s="53">
-        <f t="shared" ref="Z209:Z235" si="16">F209/F208-1</f>
+        <f t="shared" ref="Z209:Z235" si="17">F209/F208-1</f>
         <v>6.3911584186138626E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>14</v>
       </c>
@@ -22848,15 +22836,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y210" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.6931480821755125E-2</v>
       </c>
       <c r="Z210" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.363631918330646E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>15</v>
       </c>
@@ -22921,15 +22909,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y211" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.1264315162620182E-2</v>
       </c>
       <c r="Z211" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.873117215913922E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>16</v>
       </c>
@@ -22992,15 +22980,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y212" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.3281510272071877E-3</v>
       </c>
       <c r="Z212" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5753824004155703E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>17</v>
       </c>
@@ -23063,15 +23051,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y213" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.3019033997139355E-2</v>
       </c>
       <c r="Z213" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.1821729267771697E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>18</v>
       </c>
@@ -23136,15 +23124,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y214" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.4373419176822342E-2</v>
       </c>
       <c r="Z214" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.1071135246662385E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>19</v>
       </c>
@@ -23207,15 +23195,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y215" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.9012345679012386E-2</v>
       </c>
       <c r="Z215" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5733241289656057E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>20</v>
       </c>
@@ -23280,15 +23268,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y216" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.1605991262749775E-4</v>
       </c>
       <c r="Z216" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7619083209937214E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>21</v>
       </c>
@@ -23353,15 +23341,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y217" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.2268662923684781E-2</v>
       </c>
       <c r="Z217" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8169169226085025E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>22</v>
       </c>
@@ -23426,15 +23414,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y218" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z218" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6510204571834608E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>23</v>
       </c>
@@ -23499,15 +23487,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y219" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.3684210526314686E-4</v>
       </c>
       <c r="Z219" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6079484131351851E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>24</v>
       </c>
@@ -23570,15 +23558,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y220" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.3629956873881852E-3</v>
       </c>
       <c r="Z220" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.6749398622415654E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>25</v>
       </c>
@@ -23643,15 +23631,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y221" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0489714942048662E-2</v>
       </c>
       <c r="Z221" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.8277133855787451E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>26</v>
       </c>
@@ -23716,15 +23704,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y222" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.634512108622955E-2</v>
       </c>
       <c r="Z222" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.4081985697471442E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>27</v>
       </c>
@@ -23789,15 +23777,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y223" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.7840852996347198E-2</v>
       </c>
       <c r="Z223" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.7592509421337423E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>28</v>
       </c>
@@ -23862,15 +23850,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y224" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.898664873691283E-2</v>
       </c>
       <c r="Z224" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.7136825055065241E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>29</v>
       </c>
@@ -23935,15 +23923,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y225" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.3036351982419285E-2</v>
       </c>
       <c r="Z225" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.2779836023480557E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>30</v>
       </c>
@@ -24008,15 +23996,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="Y226" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.3184092704766854E-2</v>
       </c>
       <c r="Z226" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-2.2326385588811615E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>31</v>
       </c>
@@ -24081,15 +24069,15 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="Y227" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.8693176990398408E-2</v>
       </c>
       <c r="Z227" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.6532462370843399E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>32</v>
       </c>
@@ -24154,15 +24142,15 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="Y228" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.1445491700725636E-2</v>
       </c>
       <c r="Z228" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.052918159063478E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>33</v>
       </c>
@@ -24227,15 +24215,15 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="Y229" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.5068736859130691E-3</v>
       </c>
       <c r="Z229" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.5693563391428373E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>34</v>
       </c>
@@ -24300,15 +24288,15 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="Y230" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7.7438089860449866E-3</v>
       </c>
       <c r="Z230" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1021473056942455E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>35</v>
       </c>
@@ -24373,15 +24361,15 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="Y231" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.6336070238192102E-2</v>
       </c>
       <c r="Z231" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.3650208682024054E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>36</v>
       </c>
@@ -24444,15 +24432,15 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="Y232" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.4382861934893594E-2</v>
       </c>
       <c r="Z232" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.511403189538064E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>37</v>
       </c>
@@ -24515,15 +24503,15 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="Y233" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0807783018867996E-2</v>
       </c>
       <c r="Z233" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.1493243924418213E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>38</v>
       </c>
@@ -24588,11 +24576,11 @@
       </c>
       <c r="Y234" s="53"/>
       <c r="Z234" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.3400349140063836E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="18">
         <v>39</v>
       </c>
@@ -24655,11 +24643,11 @@
       </c>
       <c r="Y235" s="53"/>
       <c r="Z235" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6180617849411716E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>1</v>
       </c>
@@ -24676,7 +24664,7 @@
         <v>5826</v>
       </c>
       <c r="F236" s="54">
-        <f t="shared" ref="F236:F244" si="17">F237/(E237/E236)</f>
+        <f t="shared" ref="F236:F244" si="18">F237/(E237/E236)</f>
         <v>8990.358187241196</v>
       </c>
       <c r="G236" s="36">
@@ -24715,7 +24703,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>2</v>
       </c>
@@ -24732,7 +24720,7 @@
         <v>5831</v>
       </c>
       <c r="F237" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8998.0739083081717</v>
       </c>
       <c r="G237" s="36">
@@ -24771,7 +24759,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>3</v>
       </c>
@@ -24788,7 +24776,7 @@
         <v>5704</v>
       </c>
       <c r="F238" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8802.0945932069644</v>
       </c>
       <c r="G238" s="36">
@@ -24827,7 +24815,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>4</v>
       </c>
@@ -24844,7 +24832,7 @@
         <v>5351</v>
       </c>
       <c r="F239" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8257.3646858784123</v>
       </c>
       <c r="G239" s="36">
@@ -24883,7 +24871,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>5</v>
       </c>
@@ -24900,7 +24888,7 @@
         <v>5357</v>
       </c>
       <c r="F240" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8266.6235511587838</v>
       </c>
       <c r="G240" s="36">
@@ -24939,7 +24927,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>6</v>
       </c>
@@ -24956,7 +24944,7 @@
         <v>5358</v>
       </c>
       <c r="F241" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8268.1666953721779</v>
       </c>
       <c r="G241" s="36">
@@ -24995,7 +24983,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>7</v>
       </c>
@@ -25012,7 +25000,7 @@
         <v>4969</v>
       </c>
       <c r="F242" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7667.8835963613947</v>
       </c>
       <c r="G242" s="36">
@@ -25051,7 +25039,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>8</v>
       </c>
@@ -25068,7 +25056,7 @@
         <v>4638</v>
       </c>
       <c r="F243" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7157.1028617275406</v>
       </c>
       <c r="G243" s="36">
@@ -25109,7 +25097,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>9</v>
       </c>
@@ -25126,7 +25114,7 @@
         <v>4711</v>
       </c>
       <c r="F244" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7269.7523893053994</v>
       </c>
       <c r="G244" s="36">
@@ -25167,7 +25155,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>10</v>
       </c>
@@ -25225,7 +25213,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>11</v>
       </c>
@@ -25284,7 +25272,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>12</v>
       </c>
@@ -25349,7 +25337,7 @@
         <v>1.8859286697322508E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>13</v>
       </c>
@@ -25406,15 +25394,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y248" s="53">
-        <f t="shared" ref="Y248:Y274" si="18">E248/E247-1</f>
+        <f t="shared" ref="Y248:Y272" si="19">E248/E247-1</f>
         <v>5.060975609756091E-2</v>
       </c>
       <c r="Z248" s="53">
-        <f t="shared" ref="Z248:Z274" si="19">F248/F247-1</f>
+        <f t="shared" ref="Z248:Z274" si="20">F248/F247-1</f>
         <v>-2.074755084125024E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>14</v>
       </c>
@@ -25471,15 +25459,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y249" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-5.6490617140646182E-2</v>
       </c>
       <c r="Z249" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.0912293327945983E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>15</v>
       </c>
@@ -25544,15 +25532,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y250" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.214476112364161E-2</v>
       </c>
       <c r="Z250" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9649505497719932E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>16</v>
       </c>
@@ -25611,15 +25599,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y251" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.8054162487461944E-3</v>
       </c>
       <c r="Z251" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5941470287091946E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>17</v>
       </c>
@@ -25678,15 +25666,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y252" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.3263665594855256E-2</v>
       </c>
       <c r="Z252" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-4.2377212755652094E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>18</v>
       </c>
@@ -25747,15 +25735,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y253" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3421588594704668E-2</v>
       </c>
       <c r="Z253" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.1605704800833569E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>19</v>
       </c>
@@ -25814,15 +25802,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y254" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.9701492537311829E-4</v>
       </c>
       <c r="Z254" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1755649735033291E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>20</v>
       </c>
@@ -25887,15 +25875,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y255" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4.5942720763723188E-2</v>
       </c>
       <c r="Z255" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-6.604966748907215E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>21</v>
       </c>
@@ -25960,15 +25948,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y256" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.815509693558484E-2</v>
       </c>
       <c r="Z256" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-8.1353042463853109E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>22</v>
       </c>
@@ -26029,15 +26017,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y257" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.6483691328560015E-2</v>
       </c>
       <c r="Z257" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.1346502142961965E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>23</v>
       </c>
@@ -26096,15 +26084,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y258" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.0737951807228878E-2</v>
       </c>
       <c r="Z258" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.2846872055783063E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>24</v>
       </c>
@@ -26167,15 +26155,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y259" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.9178460476354759E-2</v>
       </c>
       <c r="Z259" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.8482124831713591E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>25</v>
       </c>
@@ -26240,15 +26228,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y260" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.5000830426839489E-2</v>
       </c>
       <c r="Z260" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.4066799002871155E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>26</v>
       </c>
@@ -26313,15 +26301,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y261" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.11770059153647816</v>
       </c>
       <c r="Z261" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.5438537852804375E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>27</v>
       </c>
@@ -26386,15 +26374,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y262" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.7674039896865148E-2</v>
       </c>
       <c r="Z262" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6693049094195676E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>28</v>
       </c>
@@ -26459,15 +26447,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="Y263" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.0664613805491348E-2</v>
       </c>
       <c r="Z263" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.94779992858696E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>29</v>
       </c>
@@ -26532,15 +26520,15 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="Y264" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.4236275364123046E-2</v>
       </c>
       <c r="Z264" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6070502489094833E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>30</v>
       </c>
@@ -26605,15 +26593,15 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="Y265" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3.0261660978384564E-2</v>
       </c>
       <c r="Z265" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.0581885338838748E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>31</v>
       </c>
@@ -26678,15 +26666,15 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="Y266" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.8864382918817357E-2</v>
       </c>
       <c r="Z266" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8929275723824635E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>32</v>
       </c>
@@ -26751,15 +26739,15 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="Y267" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.592799912194061E-2</v>
       </c>
       <c r="Z267" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2210516775317082E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>33</v>
       </c>
@@ -26822,15 +26810,15 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="Y268" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.5753630445668483E-2</v>
       </c>
       <c r="Z268" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.0702529707633994E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>34</v>
       </c>
@@ -26895,15 +26883,15 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="Y269" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.1537420228195741E-2</v>
       </c>
       <c r="Z269" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.3872804684099034E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>35</v>
       </c>
@@ -26968,15 +26956,15 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="Y270" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5724137931034443E-2</v>
       </c>
       <c r="Z270" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.1989412270929209E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>36</v>
       </c>
@@ -27039,15 +27027,15 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="Y271" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.195002715915261E-2</v>
       </c>
       <c r="Z271" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.5075851232001058E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>37</v>
       </c>
@@ -27110,15 +27098,15 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="Y272" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3.4634414513468936E-2</v>
       </c>
       <c r="Z272" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2.8980248871373182E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>38</v>
       </c>
@@ -27183,11 +27171,11 @@
       </c>
       <c r="Y273" s="53"/>
       <c r="Z273" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7387711651040174E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>39</v>
       </c>
@@ -27250,11 +27238,11 @@
       </c>
       <c r="Y274" s="53"/>
       <c r="Z274" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.970899028032715E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>1</v>
       </c>
@@ -27271,7 +27259,7 @@
         <v>11236</v>
       </c>
       <c r="F275" s="54">
-        <f t="shared" ref="F275:F283" si="20">F276/(E276/E275)</f>
+        <f t="shared" ref="F275:F283" si="21">F276/(E276/E275)</f>
         <v>15623.644620369902</v>
       </c>
       <c r="G275" s="48">
@@ -27310,7 +27298,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>2</v>
       </c>
@@ -27327,7 +27315,7 @@
         <v>11812</v>
       </c>
       <c r="F276" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16424.571934479289</v>
       </c>
       <c r="G276" s="36">
@@ -27366,7 +27354,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>3</v>
       </c>
@@ -27383,7 +27371,7 @@
         <v>11364</v>
       </c>
       <c r="F277" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15801.628467949768</v>
       </c>
       <c r="G277" s="36">
@@ -27422,7 +27410,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>4</v>
       </c>
@@ -27439,7 +27427,7 @@
         <v>10412</v>
       </c>
       <c r="F278" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14477.873601574533</v>
       </c>
       <c r="G278" s="36">
@@ -27478,7 +27466,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>5</v>
       </c>
@@ -27495,7 +27483,7 @@
         <v>10433</v>
       </c>
       <c r="F279" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14507.074076568104</v>
       </c>
       <c r="G279" s="36">
@@ -27534,7 +27522,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>6</v>
       </c>
@@ -27551,7 +27539,7 @@
         <v>10293</v>
       </c>
       <c r="F280" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14312.404243277628</v>
       </c>
       <c r="G280" s="36">
@@ -27590,7 +27578,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>7</v>
       </c>
@@ -27607,7 +27595,7 @@
         <v>9431</v>
       </c>
       <c r="F281" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13113.794269731983</v>
       </c>
       <c r="G281" s="36">
@@ -27646,7 +27634,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>8</v>
       </c>
@@ -27663,7 +27651,7 @@
         <v>9333</v>
       </c>
       <c r="F282" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12977.525386428651</v>
       </c>
       <c r="G282" s="36">
@@ -27702,7 +27690,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>9</v>
       </c>
@@ -27719,7 +27707,7 @@
         <v>9168</v>
       </c>
       <c r="F283" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12748.093082907733</v>
       </c>
       <c r="G283" s="36">
@@ -27760,7 +27748,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>10</v>
       </c>
@@ -27822,7 +27810,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>11</v>
       </c>
@@ -27877,7 +27865,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>12</v>
       </c>
@@ -27942,7 +27930,7 @@
         <v>2.3020065911292464E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>13</v>
       </c>
@@ -28005,15 +27993,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y287" s="53">
-        <f t="shared" ref="Y287:Y313" si="21">E287/E286-1</f>
+        <f t="shared" ref="Y287:Y311" si="22">E287/E286-1</f>
         <v>2.2421073798511992E-2</v>
       </c>
       <c r="Z287" s="53">
-        <f t="shared" ref="Z287:Z313" si="22">F287/F286-1</f>
+        <f t="shared" ref="Z287:Z313" si="23">F287/F286-1</f>
         <v>1.6831148277880459E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>14</v>
       </c>
@@ -28070,15 +28058,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y288" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.1702232274559909E-2</v>
       </c>
       <c r="Z288" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.579254593331525E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>15</v>
       </c>
@@ -28143,15 +28131,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y289" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7014925373134426E-2</v>
       </c>
       <c r="Z289" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.159059689143473E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>16</v>
       </c>
@@ -28210,15 +28198,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y290" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.1096761569318071</v>
       </c>
       <c r="Z290" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-7.8317422553590976E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>17</v>
       </c>
@@ -28283,15 +28271,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y291" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.9450549450549275E-3</v>
       </c>
       <c r="Z291" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.0724448334414252E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>18</v>
       </c>
@@ -28350,15 +28338,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y292" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.7845817386549925E-2</v>
       </c>
       <c r="Z292" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.1935635398779212E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>19</v>
       </c>
@@ -28423,15 +28411,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y293" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.6129832540831037E-2</v>
       </c>
       <c r="Z293" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.5815678844592025E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10">
         <v>20</v>
       </c>
@@ -28490,15 +28478,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y294" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7030439463639135E-2</v>
       </c>
       <c r="Z294" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.247837106464722E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>21</v>
       </c>
@@ -28563,15 +28551,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y295" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.1136560485035156E-2</v>
       </c>
       <c r="Z295" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.4409858786208725E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>22</v>
       </c>
@@ -28630,15 +28618,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y296" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3.3515611218909447E-3</v>
       </c>
       <c r="Z296" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.7929036125865161E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>23</v>
       </c>
@@ -28703,15 +28691,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y297" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.7345132743353879E-4</v>
       </c>
       <c r="Z297" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.4029322654092846E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>24</v>
       </c>
@@ -28770,15 +28758,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y298" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4941207673945689E-2</v>
       </c>
       <c r="Z298" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.2262315291360402E-4</v>
       </c>
     </row>
-    <row r="299" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>25</v>
       </c>
@@ -28843,15 +28831,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y299" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.2108013937282269E-2</v>
       </c>
       <c r="Z299" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.4948329845069672E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>26</v>
       </c>
@@ -28916,15 +28904,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y300" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.7661773148527837E-2</v>
       </c>
       <c r="Z300" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.6951579691303404E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>27</v>
       </c>
@@ -28989,15 +28977,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y301" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.3387617145490784E-2</v>
       </c>
       <c r="Z301" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.9844383419292519E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>28</v>
       </c>
@@ -29056,15 +29044,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y302" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.4055276015459768E-2</v>
       </c>
       <c r="Z302" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.8256809354133594E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>29</v>
       </c>
@@ -29129,15 +29117,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y303" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.8476727785613489E-2</v>
       </c>
       <c r="Z303" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3.5763298847656388E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>30</v>
       </c>
@@ -29196,15 +29184,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y304" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.7026727600055347E-2</v>
       </c>
       <c r="Z304" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-6.6741670502468931E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>31</v>
       </c>
@@ -29269,15 +29257,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y305" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.9522042452130108E-2</v>
       </c>
       <c r="Z305" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.6171894362214241E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>32</v>
       </c>
@@ -29336,15 +29324,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y306" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.5424488652283452E-2</v>
       </c>
       <c r="Z306" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2271608515681107E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>33</v>
       </c>
@@ -29409,15 +29397,15 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="Y307" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-4.6022353714658681E-4</v>
       </c>
       <c r="Z307" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2471451208782467E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>34</v>
       </c>
@@ -29476,15 +29464,15 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="Y308" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0129579688219481E-2</v>
       </c>
       <c r="Z308" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.9449416696691877E-4</v>
       </c>
     </row>
-    <row r="309" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>35</v>
       </c>
@@ -29549,15 +29537,15 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="Y309" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1330337956632075E-2</v>
       </c>
       <c r="Z309" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.499188933053941E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>36</v>
       </c>
@@ -29616,15 +29604,15 @@
         <v>0.73</v>
       </c>
       <c r="Y310" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.5131028266048618E-2</v>
       </c>
       <c r="Z310" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0139271135846792E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>37</v>
       </c>
@@ -29687,15 +29675,15 @@
         <v>0.73</v>
       </c>
       <c r="Y311" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.3468222757834223E-3</v>
       </c>
       <c r="Z311" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6796939161247026E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>38</v>
       </c>
@@ -29756,11 +29744,11 @@
       </c>
       <c r="Y312" s="53"/>
       <c r="Z312" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.3635159643301602E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="18">
         <v>39</v>
       </c>
@@ -29823,11 +29811,11 @@
       </c>
       <c r="Y313" s="53"/>
       <c r="Z313" s="53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.919324581684652E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>1</v>
       </c>
@@ -29844,7 +29832,7 @@
         <v>3517</v>
       </c>
       <c r="F314" s="54">
-        <f t="shared" ref="F314:F322" si="23">F315/(E315/E314)</f>
+        <f t="shared" ref="F314:F322" si="24">F315/(E315/E314)</f>
         <v>7040.1977209321149</v>
       </c>
       <c r="G314" s="36">
@@ -29885,7 +29873,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>2</v>
       </c>
@@ -29902,7 +29890,7 @@
         <v>3754</v>
       </c>
       <c r="F315" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7514.6153666133514</v>
       </c>
       <c r="G315" s="36">
@@ -29941,7 +29929,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>3</v>
       </c>
@@ -29958,7 +29946,7 @@
         <v>3690</v>
       </c>
       <c r="F316" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7386.5025846572371</v>
       </c>
       <c r="G316" s="36">
@@ -29999,7 +29987,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>4</v>
       </c>
@@ -30016,7 +30004,7 @@
         <v>3545</v>
       </c>
       <c r="F317" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7096.2470630379148</v>
       </c>
       <c r="G317" s="36">
@@ -30057,7 +30045,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>5</v>
       </c>
@@ -30074,7 +30062,7 @@
         <v>3539</v>
       </c>
       <c r="F318" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7084.2364897295292</v>
       </c>
       <c r="G318" s="36">
@@ -30115,7 +30103,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>6</v>
       </c>
@@ -30132,7 +30120,7 @@
         <v>3553</v>
       </c>
       <c r="F319" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7112.2611607824292</v>
       </c>
       <c r="G319" s="36">
@@ -30173,7 +30161,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>7</v>
       </c>
@@ -30190,7 +30178,7 @@
         <v>3435</v>
       </c>
       <c r="F320" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6876.0532190508429</v>
       </c>
       <c r="G320" s="36">
@@ -30231,7 +30219,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>8</v>
       </c>
@@ -30248,7 +30236,7 @@
         <v>3511</v>
       </c>
       <c r="F321" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7028.1871476237293</v>
       </c>
       <c r="G321" s="36">
@@ -30289,7 +30277,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>9</v>
       </c>
@@ -30306,7 +30294,7 @@
         <v>3640</v>
       </c>
       <c r="F322" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7286.4144737540219</v>
       </c>
       <c r="G322" s="36">
@@ -30347,7 +30335,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>10</v>
       </c>
@@ -30405,7 +30393,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>11</v>
       </c>
@@ -30468,7 +30456,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="325" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>12</v>
       </c>
@@ -30533,7 +30521,7 @@
         <v>8.4491070034076188E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>13</v>
       </c>
@@ -30592,15 +30580,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y326" s="53">
-        <f t="shared" ref="Y326:Y352" si="24">E326/E325-1</f>
+        <f t="shared" ref="Y326:Y350" si="25">E326/E325-1</f>
         <v>-8.9932550587059623E-3</v>
       </c>
       <c r="Z326" s="53">
-        <f t="shared" ref="Z326:Z352" si="25">F326/F325-1</f>
+        <f t="shared" ref="Z326:Z352" si="26">F326/F325-1</f>
         <v>-8.3558658317349765E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>14</v>
       </c>
@@ -30657,15 +30645,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y327" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.2435089488278326E-2</v>
       </c>
       <c r="Z327" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.3908783606368944E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>15</v>
       </c>
@@ -30726,15 +30714,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y328" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.2544378698224907E-2</v>
       </c>
       <c r="Z328" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.8221860891554096E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>16</v>
       </c>
@@ -30797,15 +30785,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y329" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.2206303724928267E-2</v>
       </c>
       <c r="Z329" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.3461705190436017E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>17</v>
       </c>
@@ -30866,15 +30854,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y330" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.1212333566923638E-2</v>
       </c>
       <c r="Z330" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-7.286095822876093E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>18</v>
       </c>
@@ -30937,15 +30925,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y331" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6.1422159225136275E-3</v>
       </c>
       <c r="Z331" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.9385481411065664E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>19</v>
       </c>
@@ -31002,15 +30990,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y332" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9966722129783676E-2</v>
       </c>
       <c r="Z332" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.0818668115216044E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10">
         <v>20</v>
       </c>
@@ -31075,15 +31063,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y333" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-7.2477278023770686E-2</v>
       </c>
       <c r="Z333" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-3.4178532211148971E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>21</v>
       </c>
@@ -31144,15 +31132,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y334" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6.1809045226130621E-2</v>
       </c>
       <c r="Z334" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.2749775630752662E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>22</v>
       </c>
@@ -31215,15 +31203,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y335" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.1065881092662062E-2</v>
       </c>
       <c r="Z335" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.7566169794212669E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>23</v>
       </c>
@@ -31286,15 +31274,15 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="Y336" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.28155844155844156</v>
       </c>
       <c r="Z336" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.8922748492494534E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>24</v>
       </c>
@@ -31359,15 +31347,15 @@
         <v>0.754</v>
       </c>
       <c r="Y337" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.2022699635184448E-2</v>
       </c>
       <c r="Z337" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.4498742207362589E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>25</v>
       </c>
@@ -31432,15 +31420,15 @@
         <v>0.754</v>
       </c>
       <c r="Y338" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.4171249018067451E-2</v>
       </c>
       <c r="Z338" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.2857790180764725E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>26</v>
       </c>
@@ -31505,15 +31493,15 @@
         <v>0.754</v>
       </c>
       <c r="Y339" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5826053930877224E-2</v>
       </c>
       <c r="Z339" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.9301604824336653E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>27</v>
       </c>
@@ -31578,15 +31566,15 @@
         <v>0.754</v>
       </c>
       <c r="Y340" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0166604961125572E-2</v>
       </c>
       <c r="Z340" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.2276572692493621E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>28</v>
       </c>
@@ -31651,15 +31639,15 @@
         <v>0.754</v>
       </c>
       <c r="Y341" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9918914154768208E-2</v>
       </c>
       <c r="Z341" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.9239269165723956E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>29</v>
       </c>
@@ -31724,15 +31712,15 @@
         <v>0.754</v>
       </c>
       <c r="Y342" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.3529208434151414E-2</v>
       </c>
       <c r="Z342" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.9097794059889122E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>30</v>
       </c>
@@ -31797,15 +31785,15 @@
         <v>0.754</v>
       </c>
       <c r="Y343" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.7023411371237565E-2</v>
       </c>
       <c r="Z343" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.5957893137385937E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>31</v>
       </c>
@@ -31870,15 +31858,15 @@
         <v>0.754</v>
       </c>
       <c r="Y344" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.8118968517639562E-2</v>
       </c>
       <c r="Z344" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.6486367535155493E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>32</v>
       </c>
@@ -31943,15 +31931,15 @@
         <v>0.754</v>
       </c>
       <c r="Y345" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.2550159930212299E-2</v>
       </c>
       <c r="Z345" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.8343856669275524E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>33</v>
       </c>
@@ -32016,15 +32004,15 @@
         <v>0.754</v>
       </c>
       <c r="Y346" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9655686593466282E-2</v>
       </c>
       <c r="Z346" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.8943401575055363E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>34</v>
       </c>
@@ -32089,15 +32077,15 @@
         <v>0.754</v>
       </c>
       <c r="Y347" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.842063281042285E-2</v>
       </c>
       <c r="Z347" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.9392829091522668E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>35</v>
       </c>
@@ -32162,15 +32150,15 @@
         <v>0.754</v>
       </c>
       <c r="Y348" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1081807707079818E-2</v>
       </c>
       <c r="Z348" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.4427833026256183E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>36</v>
       </c>
@@ -32233,15 +32221,15 @@
         <v>0.73</v>
       </c>
       <c r="Y349" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8757612667478663E-2</v>
       </c>
       <c r="Z349" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.7054031286378946E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>37</v>
       </c>
@@ -32304,15 +32292,15 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="Y350" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.8813964610234333E-2</v>
       </c>
       <c r="Z350" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.9412366988673888E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>38</v>
       </c>
@@ -32377,11 +32365,11 @@
       </c>
       <c r="Y351" s="53"/>
       <c r="Z351" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.5948470983679037E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="18">
         <v>39</v>
       </c>
@@ -32444,11 +32432,11 @@
       </c>
       <c r="Y352" s="53"/>
       <c r="Z352" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.3499903437389058E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>1</v>
       </c>
@@ -32465,7 +32453,7 @@
         <v>3900</v>
       </c>
       <c r="F353" s="54">
-        <f t="shared" ref="F353:F361" si="26">F354/(E354/E353)</f>
+        <f t="shared" ref="F353:F361" si="27">F354/(E354/E353)</f>
         <v>6096.307238447811</v>
       </c>
       <c r="G353" s="48"/>
@@ -32502,7 +32490,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>2</v>
       </c>
@@ -32519,7 +32507,7 @@
         <v>4076</v>
       </c>
       <c r="F354" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6371.4226420290461</v>
       </c>
       <c r="G354" s="36"/>
@@ -32556,7 +32544,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>3</v>
       </c>
@@ -32573,7 +32561,7 @@
         <v>4035</v>
       </c>
       <c r="F355" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6307.3332582402363</v>
       </c>
       <c r="G355" s="36"/>
@@ -32610,7 +32598,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>4</v>
       </c>
@@ -32627,7 +32615,7 @@
         <v>3521</v>
       </c>
       <c r="F356" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5503.8712273268584</v>
       </c>
       <c r="G356" s="36"/>
@@ -32664,7 +32652,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>5</v>
       </c>
@@ -32681,7 +32669,7 @@
         <v>3610</v>
       </c>
       <c r="F357" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5642.9920848196416</v>
       </c>
       <c r="G357" s="36"/>
@@ -32718,7 +32706,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="358" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>6</v>
       </c>
@@ -32735,7 +32723,7 @@
         <v>3566</v>
       </c>
       <c r="F358" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5574.2132339243335</v>
       </c>
       <c r="G358" s="36"/>
@@ -32772,7 +32760,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>7</v>
       </c>
@@ -32789,7 +32777,7 @@
         <v>4047</v>
       </c>
       <c r="F359" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6326.0911266662297</v>
       </c>
       <c r="G359" s="36"/>
@@ -32826,7 +32814,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>8</v>
       </c>
@@ -32843,7 +32831,7 @@
         <v>4380</v>
       </c>
       <c r="F360" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6846.6219754875428</v>
       </c>
       <c r="G360" s="36"/>
@@ -32880,7 +32868,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>9</v>
       </c>
@@ -32897,7 +32885,7 @@
         <v>4136</v>
       </c>
       <c r="F361" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6465.2119841590129</v>
       </c>
       <c r="G361" s="36"/>
@@ -32932,7 +32920,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>10</v>
       </c>
@@ -32986,7 +32974,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="363" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>11</v>
       </c>
@@ -33039,7 +33027,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>12</v>
       </c>
@@ -33104,7 +33092,7 @@
         <v>1.7261625734592556E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>13</v>
       </c>
@@ -33161,15 +33149,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y365" s="53">
-        <f t="shared" ref="Y365:Y391" si="27">E365/E364-1</f>
+        <f t="shared" ref="Y365:Y389" si="28">E365/E364-1</f>
         <v>7.5713453698311728E-3</v>
       </c>
       <c r="Z365" s="53">
-        <f t="shared" ref="Z365:Z391" si="28">F365/F364-1</f>
+        <f t="shared" ref="Z365:Z391" si="29">F365/F364-1</f>
         <v>-2.4651891620111166E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>14</v>
       </c>
@@ -33226,15 +33214,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y366" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.3930635838150378E-2</v>
       </c>
       <c r="Z366" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.2594220702877319E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>15</v>
       </c>
@@ -33291,15 +33279,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y367" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.14313399778516067</v>
       </c>
       <c r="Z367" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.10221121874683869</v>
       </c>
     </row>
-    <row r="368" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>16</v>
       </c>
@@ -33356,15 +33344,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y368" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.978202954710591E-2</v>
       </c>
       <c r="Z368" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.4321633802795199E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>17</v>
       </c>
@@ -33423,15 +33411,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y369" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.2151508478308832E-2</v>
       </c>
       <c r="Z369" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9.1082067503500674E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>18</v>
       </c>
@@ -33496,15 +33484,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y370" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.1205461915937667E-2</v>
       </c>
       <c r="Z370" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5461655989421201E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>19</v>
       </c>
@@ -33567,15 +33555,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y371" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.4300791556728272E-2</v>
       </c>
       <c r="Z371" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1272781751559666E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10">
         <v>20</v>
       </c>
@@ -33640,15 +33628,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y372" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.345102984447244E-2</v>
       </c>
       <c r="Z372" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.4059931128084235E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>21</v>
       </c>
@@ -33711,15 +33699,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y373" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.7682147422241057E-2</v>
       </c>
       <c r="Z373" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.2131358543187476E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>22</v>
       </c>
@@ -33784,15 +33772,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y374" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-4.3960644756123601E-3</v>
       </c>
       <c r="Z374" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.5616316502292715E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>23</v>
       </c>
@@ -33855,15 +33843,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y375" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.3195962994112778E-2</v>
       </c>
       <c r="Z375" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.2796396154646033E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>24</v>
       </c>
@@ -33928,15 +33916,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y376" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.9510880415252645E-2</v>
       </c>
       <c r="Z376" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.1327506482633938E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>25</v>
       </c>
@@ -33999,15 +33987,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y377" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.828989918204309E-2</v>
       </c>
       <c r="Z377" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.0007785456827927E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>26</v>
       </c>
@@ -34070,15 +34058,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y378" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.10060541310541304</v>
       </c>
       <c r="Z378" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.3623005671685764E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>27</v>
       </c>
@@ -34141,15 +34129,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y379" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.12214851965701334</v>
       </c>
       <c r="Z379" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.6262159769420625E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>28</v>
       </c>
@@ -34214,15 +34202,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y380" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.6741637831603278E-2</v>
       </c>
       <c r="Z380" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.6336502723687083E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>29</v>
       </c>
@@ -34287,15 +34275,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y381" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.741948205600103E-2</v>
       </c>
       <c r="Z381" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.2506273656628659E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>30</v>
       </c>
@@ -34360,15 +34348,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y382" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-2.9013539651837617E-3</v>
       </c>
       <c r="Z382" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.8706844615022931E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>31</v>
       </c>
@@ -34433,15 +34421,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y383" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.1286372453928224</v>
       </c>
       <c r="Z383" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.4553586478797174E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>32</v>
       </c>
@@ -34506,15 +34494,15 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y384" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.8955849178214521E-2</v>
       </c>
       <c r="Z384" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.4673844908754043E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>33</v>
       </c>
@@ -34579,15 +34567,15 @@
         <v>0.65200000000000002</v>
       </c>
       <c r="Y385" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.4703305455993547E-2</v>
       </c>
       <c r="Z385" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.2675288214109273E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>34</v>
       </c>
@@ -34652,15 +34640,15 @@
         <v>0.68500000000000005</v>
       </c>
       <c r="Y386" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.7637472600781532E-2</v>
       </c>
       <c r="Z386" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.9025719704139492E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
         <v>35</v>
       </c>
@@ -34725,15 +34713,15 @@
         <v>0.69</v>
       </c>
       <c r="Y387" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.6507465454882686E-2</v>
       </c>
       <c r="Z387" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.3057046816918438E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>36</v>
       </c>
@@ -34796,15 +34784,15 @@
         <v>0.69</v>
       </c>
       <c r="Y388" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.317306815071607E-2</v>
       </c>
       <c r="Z388" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.9633170881576234E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
         <v>37</v>
       </c>
@@ -34867,15 +34855,15 @@
         <v>0.69</v>
       </c>
       <c r="Y389" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.8979045920642044E-2</v>
       </c>
       <c r="Z389" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.4229012952038165E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
         <v>38</v>
       </c>
@@ -34940,11 +34928,11 @@
       </c>
       <c r="Y390" s="53"/>
       <c r="Z390" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.2911968082077792E-3</v>
       </c>
     </row>
-    <row r="391" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6">
         <v>39</v>
       </c>
@@ -35007,11 +34995,11 @@
       </c>
       <c r="Y391" s="53"/>
       <c r="Z391" s="53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.2056170313105028E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="14">
         <v>1</v>
       </c>
@@ -35028,7 +35016,7 @@
         <v>9825</v>
       </c>
       <c r="F392" s="54">
-        <f t="shared" ref="F392:F400" si="29">F393/(E393/E392)</f>
+        <f t="shared" ref="F392:F400" si="30">F393/(E393/E392)</f>
         <v>10505.990716521774</v>
       </c>
       <c r="G392" s="48"/>
@@ -35065,7 +35053,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>2</v>
       </c>
@@ -35082,7 +35070,7 @@
         <v>9834</v>
       </c>
       <c r="F393" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10515.614524811717</v>
       </c>
       <c r="G393" s="36"/>
@@ -35119,7 +35107,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>3</v>
       </c>
@@ -35136,7 +35124,7 @@
         <v>8819</v>
       </c>
       <c r="F394" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9430.2628121125217</v>
       </c>
       <c r="G394" s="36"/>
@@ -35173,7 +35161,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
         <v>4</v>
       </c>
@@ -35190,7 +35178,7 @@
         <v>7808</v>
       </c>
       <c r="F395" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8349.1883475421891</v>
       </c>
       <c r="G395" s="36">
@@ -35229,7 +35217,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
         <v>5</v>
       </c>
@@ -35246,7 +35234,7 @@
         <v>7684</v>
       </c>
       <c r="F396" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8216.5936555474109</v>
       </c>
       <c r="G396" s="36">
@@ -35287,7 +35275,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>6</v>
       </c>
@@ -35304,7 +35292,7 @@
         <v>7631</v>
       </c>
       <c r="F397" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8159.9201178399662</v>
       </c>
       <c r="G397" s="36">
@@ -35343,7 +35331,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>7</v>
       </c>
@@ -35360,7 +35348,7 @@
         <v>8612</v>
       </c>
       <c r="F398" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9208.91522144382</v>
       </c>
       <c r="G398" s="36">
@@ -35401,7 +35389,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>8</v>
       </c>
@@ -35418,7 +35406,7 @@
         <v>9475</v>
       </c>
       <c r="F399" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10131.731505246191</v>
       </c>
       <c r="G399" s="36">
@@ -35459,7 +35447,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>9</v>
       </c>
@@ -35476,7 +35464,7 @@
         <v>9373</v>
       </c>
       <c r="F400" s="54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10022.661677960163</v>
       </c>
       <c r="G400" s="36">
@@ -35515,7 +35503,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>10</v>
       </c>
@@ -35571,7 +35559,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>11</v>
       </c>
@@ -35630,7 +35618,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>12</v>
       </c>
@@ -35695,7 +35683,7 @@
         <v>2.8094947930688674E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>13</v>
       </c>
@@ -35758,15 +35746,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y404" s="53">
-        <f t="shared" ref="Y404:Y430" si="30">E404/E403-1</f>
+        <f t="shared" ref="Y404:Y428" si="31">E404/E403-1</f>
         <v>0.10884212708614083</v>
       </c>
       <c r="Z404" s="53">
-        <f t="shared" ref="Z404:Z430" si="31">F404/F403-1</f>
+        <f t="shared" ref="Z404:Z430" si="32">F404/F403-1</f>
         <v>7.1513379669500887E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>14</v>
       </c>
@@ -35823,15 +35811,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y405" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.8606151257361878E-2</v>
       </c>
       <c r="Z405" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9054497796850534E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>15</v>
       </c>
@@ -35892,15 +35880,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y406" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.9251113332727385E-2</v>
       </c>
       <c r="Z406" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6.4969288231081279E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
         <v>16</v>
       </c>
@@ -35963,15 +35951,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y407" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.1957894736842056E-2</v>
       </c>
       <c r="Z407" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.1545835713547179E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
         <v>17</v>
       </c>
@@ -36034,15 +36022,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y408" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.8325236512400949E-2</v>
       </c>
       <c r="Z408" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.8269369122339034E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>18</v>
       </c>
@@ -36107,15 +36095,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y409" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.5609756097561043E-3</v>
       </c>
       <c r="Z409" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.7914392437268498E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
         <v>19</v>
       </c>
@@ -36178,15 +36166,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y410" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.4766400387315359E-2</v>
       </c>
       <c r="Z410" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.8554868712070256E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="10">
         <v>20</v>
       </c>
@@ -36247,15 +36235,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y411" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-6.2181933842239134E-2</v>
       </c>
       <c r="Z411" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.4419348883356284E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>21</v>
       </c>
@@ -36320,15 +36308,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y412" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-4.9686281159911805E-2</v>
       </c>
       <c r="Z412" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.2762754976202615E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
         <v>22</v>
       </c>
@@ -36393,15 +36381,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y413" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-5.0588865096359736E-2</v>
       </c>
       <c r="Z413" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-4.0100150082338359E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>23</v>
       </c>
@@ -36466,15 +36454,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y414" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-8.4766469316793547E-2</v>
       </c>
       <c r="Z414" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-7.747736412736983E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>24</v>
       </c>
@@ -36537,15 +36525,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y415" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.5812711777389854E-2</v>
       </c>
       <c r="Z415" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8.7722555939671043E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>25</v>
       </c>
@@ -36610,15 +36598,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y416" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.7543035993740306E-2</v>
       </c>
       <c r="Z416" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5.0734576050884606E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>26</v>
       </c>
@@ -36683,15 +36671,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y417" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.015737638338913E-2</v>
       </c>
       <c r="Z417" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.4495536810673446E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>27</v>
       </c>
@@ -36754,15 +36742,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y418" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.28860098617423E-2</v>
       </c>
       <c r="Z418" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.9859453120032251E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
         <v>28</v>
       </c>
@@ -36827,15 +36815,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y419" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9.2378328741965055E-2</v>
       </c>
       <c r="Z419" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6.3385167130989517E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>29</v>
       </c>
@@ -36900,15 +36888,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y420" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.1091123066577</v>
       </c>
       <c r="Z420" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6.9043074689532524E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>30</v>
       </c>
@@ -36973,15 +36961,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y421" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.7142640594209473E-2</v>
       </c>
       <c r="Z421" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.9492501438813221E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>31</v>
       </c>
@@ -37046,15 +37034,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y422" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.14751013317892303</v>
       </c>
       <c r="Z422" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.4953655298767519E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>32</v>
       </c>
@@ -37119,15 +37107,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y423" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.5593541062192413E-2</v>
       </c>
       <c r="Z423" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.8606248762657955E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>33</v>
       </c>
@@ -37192,15 +37180,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="Y424" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.293765615013645E-2</v>
       </c>
       <c r="Z424" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.2305340603303145E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>34</v>
       </c>
@@ -37265,15 +37253,15 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="Y425" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.6128133704735452E-2</v>
       </c>
       <c r="Z425" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.3144669233529775E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>35</v>
       </c>
@@ -37338,15 +37326,15 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="Y426" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.2816061348386336E-2</v>
       </c>
       <c r="Z426" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.9049778065983078E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>36</v>
       </c>
@@ -37409,15 +37397,15 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="Y427" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.3917883770809851E-3</v>
       </c>
       <c r="Z427" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.024059235194887E-4</v>
       </c>
     </row>
-    <row r="428" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>37</v>
       </c>
@@ -37480,15 +37468,15 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="Y428" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.1592434411226371E-2</v>
       </c>
       <c r="Z428" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.3297695695038581E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>38</v>
       </c>
@@ -37553,11 +37541,11 @@
       </c>
       <c r="Y429" s="53"/>
       <c r="Z429" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.2177686436090527E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="18">
         <v>39</v>
       </c>
@@ -37620,11 +37608,11 @@
       </c>
       <c r="Y430" s="53"/>
       <c r="Z430" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2473125475713776E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="22">
         <f>COUNT(E2:U430)</f>
         <v>6435</v>

--- a/Dollarization in Ecuador/data.xlsx
+++ b/Dollarization in Ecuador/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - Ecuador Dollarization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99A27D49-CA2D-4FE5-81CD-3745B331B48D}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F468D98D-D31A-4A4E-9BE3-312D6970EAD5}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="9675" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -8818,10 +8818,10 @@
   <dimension ref="A1:Z432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14793,9 +14793,7 @@
       <c r="G90" s="36">
         <v>32.830618547110618</v>
       </c>
-      <c r="H90" s="36" t="s">
-        <v>22</v>
-      </c>
+      <c r="H90" s="36"/>
       <c r="I90" s="36">
         <v>15.16175556175255</v>
       </c>

--- a/Dollarization in Ecuador/data.xlsx
+++ b/Dollarization in Ecuador/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - Ecuador Dollarization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F468D98D-D31A-4A4E-9BE3-312D6970EAD5}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BC315F0-FDCA-4DEB-B0C6-76A0FDD90962}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="9675" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="765" windowWidth="9675" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATA" sheetId="1" r:id="rId1"/>
@@ -8818,10 +8818,10 @@
   <dimension ref="A1:Z432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Dollarization in Ecuador/data.xlsx
+++ b/Dollarization in Ecuador/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - Ecuador Dollarization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BC315F0-FDCA-4DEB-B0C6-76A0FDD90962}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{674047BD-C588-476D-92BB-C2E879BC77B2}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="765" windowWidth="9675" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="9675" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -194,8 +195,170 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3DC077CA-2591-4359-BCB3-65875AB14CFB}</author>
+    <author>tc={FC0F9AB8-A6B2-423C-9939-6DBCE9BFF51D}</author>
+    <author>tc={6E68D445-0BBB-4F92-970D-4897CA6FCBCB}</author>
+    <author>tc={4AF0B2CB-BBF4-43A3-A783-9538A62A72E8}</author>
+    <author>tc={43F6DD5D-7054-4951-ACDA-E52BFE0D2115}</author>
+    <author>tc={B934790C-34BB-4F3F-A58E-42305C739FD0}</author>
+    <author>tc={FD05B25D-EF8D-434B-A02B-8C9F68416287}</author>
+    <author>tc={5E86AF1E-DF27-4C3B-8E2C-DB48F799F82C}</author>
+    <author>tc={03AFB0E0-6B8D-4BC1-ADF6-B1D002447EC1}</author>
+    <author>tc={89AB13CC-CFF6-4A24-8EAB-17DB949703E8}</author>
+    <author>tc={65C602BF-20A4-4E68-A2D2-EAC4610A3968}</author>
+    <author>tc={CAAD8481-B3B4-4F9B-B618-3CCC17235E83}</author>
+    <author>tc={4A62AE11-6EF7-4624-B19B-46C3823F87AB}</author>
+    <author>tc={BA4D5C17-D78B-4DAB-8385-70273C33DA06}</author>
+    <author>tc={B2C66CE3-DEC0-4336-9291-2D180BB42EAB}</author>
+    <author>tc={6CE47A21-0715-450A-A9FF-2CDEBFAA3646}</author>
+    <author>tc={C1BBF897-67F2-4ABA-8E08-750D2D002F4A}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3DC077CA-2591-4359-BCB3-65875AB14CFB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Maddison Project</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{FC0F9AB8-A6B2-423C-9939-6DBCE9BFF51D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{6E68D445-0BBB-4F92-970D-4897CA6FCBCB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="3" shapeId="0" xr:uid="{4AF0B2CB-BBF4-43A3-A783-9538A62A72E8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{43F6DD5D-7054-4951-ACDA-E52BFE0D2115}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{B934790C-34BB-4F3F-A58E-42305C739FD0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="6" shapeId="0" xr:uid="{FD05B25D-EF8D-434B-A02B-8C9F68416287}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="7" shapeId="0" xr:uid="{5E86AF1E-DF27-4C3B-8E2C-DB48F799F82C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="8" shapeId="0" xr:uid="{03AFB0E0-6B8D-4BC1-ADF6-B1D002447EC1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    WDI</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="9" shapeId="0" xr:uid="{89AB13CC-CFF6-4A24-8EAB-17DB949703E8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CEPAL</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="10" shapeId="0" xr:uid="{65C602BF-20A4-4E68-A2D2-EAC4610A3968}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Heritage</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="11" shapeId="0" xr:uid="{CAAD8481-B3B4-4F9B-B618-3CCC17235E83}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    V-Dem</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="12" shapeId="0" xr:uid="{4A62AE11-6EF7-4624-B19B-46C3823F87AB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    V-Dem</t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="13" shapeId="0" xr:uid="{BA4D5C17-D78B-4DAB-8385-70273C33DA06}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    V-Dem</t>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="14" shapeId="0" xr:uid="{B2C66CE3-DEC0-4336-9291-2D180BB42EAB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    V-Dem</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="15" shapeId="0" xr:uid="{6CE47A21-0715-450A-A9FF-2CDEBFAA3646}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    V-Dem</t>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="16" shapeId="0" xr:uid="{C1BBF897-67F2-4ABA-8E08-750D2D002F4A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    V-Dem</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -263,9 +426,6 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -293,10 +453,13 @@
     <t>GINI_urban</t>
   </si>
   <si>
-    <t>...</t>
+    <t>Lowest_10pct</t>
   </si>
   <si>
-    <t>Lowest_10pct</t>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Post</t>
   </si>
 </sst>
 </file>
@@ -442,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -758,6 +921,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -767,7 +941,7 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,6 +1196,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="13" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="23" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="13" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8813,15 +8999,71 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2020-04-23T23:05:42.84" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{3DC077CA-2591-4359-BCB3-65875AB14CFB}">
+    <text>Maddison Project</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2020-04-23T23:05:52.22" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{FC0F9AB8-A6B2-423C-9939-6DBCE9BFF51D}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2020-04-23T23:06:00.06" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{6E68D445-0BBB-4F92-970D-4897CA6FCBCB}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2020-04-23T23:06:06.02" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{4AF0B2CB-BBF4-43A3-A783-9538A62A72E8}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2020-04-23T23:06:11.76" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{43F6DD5D-7054-4951-ACDA-E52BFE0D2115}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2020-04-23T23:06:21.57" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{B934790C-34BB-4F3F-A58E-42305C739FD0}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2020-04-23T23:42:47.09" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{FD05B25D-EF8D-434B-A02B-8C9F68416287}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2020-04-23T23:08:06.38" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{5E86AF1E-DF27-4C3B-8E2C-DB48F799F82C}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2020-04-23T23:06:31.26" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{03AFB0E0-6B8D-4BC1-ADF6-B1D002447EC1}">
+    <text>WDI</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2020-04-23T23:05:24.84" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{89AB13CC-CFF6-4A24-8EAB-17DB949703E8}">
+    <text>CEPAL</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2020-04-23T23:06:39.08" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{65C602BF-20A4-4E68-A2D2-EAC4610A3968}">
+    <text>Heritage</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2020-04-23T23:06:47.76" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{CAAD8481-B3B4-4F9B-B618-3CCC17235E83}">
+    <text>V-Dem</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2020-04-23T23:06:54.35" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{4A62AE11-6EF7-4624-B19B-46C3823F87AB}">
+    <text>V-Dem</text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2020-04-23T23:07:00.22" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{BA4D5C17-D78B-4DAB-8385-70273C33DA06}">
+    <text>V-Dem</text>
+  </threadedComment>
+  <threadedComment ref="S1" dT="2020-04-23T23:07:06.68" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{B2C66CE3-DEC0-4336-9291-2D180BB42EAB}">
+    <text>V-Dem</text>
+  </threadedComment>
+  <threadedComment ref="T1" dT="2020-04-23T23:07:17.19" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{6CE47A21-0715-450A-A9FF-2CDEBFAA3646}">
+    <text>V-Dem</text>
+  </threadedComment>
+  <threadedComment ref="U1" dT="2020-04-23T23:07:21.45" personId="{E74F9EB7-E925-473A-A2A9-D4BB41198AED}" id="{C1BBF897-67F2-4ABA-8E08-750D2D002F4A}">
+    <text>V-Dem</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:W1048576"/>
+      <selection pane="bottomRight" activeCell="L145" sqref="L145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8854,34 +9096,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="57" t="s">
         <v>5</v>
@@ -8899,7 +9141,7 @@
         <v>8</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U1" s="31" t="s">
         <v>9</v>
@@ -19361,9 +19603,7 @@
       </c>
       <c r="J157" s="50"/>
       <c r="K157" s="80"/>
-      <c r="L157" s="75" t="s">
-        <v>22</v>
-      </c>
+      <c r="L157" s="75"/>
       <c r="M157" s="43">
         <v>7.2330999374389604</v>
       </c>
@@ -31100,9 +31340,7 @@
       <c r="J334" s="36">
         <v>1.4578729722864801</v>
       </c>
-      <c r="K334" s="80" t="s">
-        <v>22</v>
-      </c>
+      <c r="K334" s="80"/>
       <c r="L334" s="75"/>
       <c r="M334" s="37">
         <v>7.6100001335143999</v>
@@ -31539,9 +31777,7 @@
       <c r="M340" s="37">
         <v>5.2765002250671396</v>
       </c>
-      <c r="N340" s="75" t="s">
-        <v>32</v>
-      </c>
+      <c r="N340" s="75"/>
       <c r="O340" s="58">
         <v>58.3</v>
       </c>
@@ -35005,7 +35241,7 @@
         <v>11</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D392" s="17">
         <v>1980</v>
@@ -35059,7 +35295,7 @@
         <v>11</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D393" s="9">
         <v>1981</v>
@@ -35113,7 +35349,7 @@
         <v>11</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D394" s="9">
         <v>1982</v>
@@ -35167,7 +35403,7 @@
         <v>11</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D395" s="9">
         <v>1983</v>
@@ -35223,7 +35459,7 @@
         <v>11</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D396" s="9">
         <v>1984</v>
@@ -35281,7 +35517,7 @@
         <v>11</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D397" s="9">
         <v>1985</v>
@@ -35337,7 +35573,7 @@
         <v>11</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D398" s="9">
         <v>1986</v>
@@ -35395,7 +35631,7 @@
         <v>11</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D399" s="9">
         <v>1987</v>
@@ -35453,7 +35689,7 @@
         <v>11</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D400" s="9">
         <v>1988</v>
@@ -35509,7 +35745,7 @@
         <v>11</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D401" s="9">
         <v>1989</v>
@@ -35565,7 +35801,7 @@
         <v>11</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D402" s="9">
         <v>1990</v>
@@ -35624,7 +35860,7 @@
         <v>11</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D403" s="9">
         <v>1991</v>
@@ -35689,7 +35925,7 @@
         <v>11</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D404" s="9">
         <v>1992</v>
@@ -35760,7 +35996,7 @@
         <v>11</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D405" s="9">
         <v>1993</v>
@@ -35825,7 +36061,7 @@
         <v>11</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D406" s="9">
         <v>1994</v>
@@ -35894,7 +36130,7 @@
         <v>11</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D407" s="9">
         <v>1995</v>
@@ -35965,7 +36201,7 @@
         <v>11</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D408" s="9">
         <v>1996</v>
@@ -36036,7 +36272,7 @@
         <v>11</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D409" s="9">
         <v>1997</v>
@@ -36109,7 +36345,7 @@
         <v>11</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D410" s="9">
         <v>1998</v>
@@ -36180,7 +36416,7 @@
         <v>11</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D411" s="13">
         <v>1999</v>
@@ -36249,7 +36485,7 @@
         <v>11</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D412" s="9">
         <v>2000</v>
@@ -36322,7 +36558,7 @@
         <v>11</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D413" s="9">
         <v>2001</v>
@@ -36395,7 +36631,7 @@
         <v>11</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D414" s="9">
         <v>2002</v>
@@ -36468,7 +36704,7 @@
         <v>11</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D415" s="9">
         <v>2003</v>
@@ -36539,7 +36775,7 @@
         <v>11</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D416" s="9">
         <v>2004</v>
@@ -36612,7 +36848,7 @@
         <v>11</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D417" s="9">
         <v>2005</v>
@@ -36685,7 +36921,7 @@
         <v>11</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D418" s="9">
         <v>2006</v>
@@ -36756,7 +36992,7 @@
         <v>11</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D419" s="9">
         <v>2007</v>
@@ -36829,7 +37065,7 @@
         <v>11</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D420" s="9">
         <v>2008</v>
@@ -36902,7 +37138,7 @@
         <v>11</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D421" s="9">
         <v>2009</v>
@@ -36975,7 +37211,7 @@
         <v>11</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D422" s="9">
         <v>2010</v>
@@ -37048,7 +37284,7 @@
         <v>11</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D423" s="9">
         <v>2011</v>
@@ -37121,7 +37357,7 @@
         <v>11</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D424" s="9">
         <v>2012</v>
@@ -37194,7 +37430,7 @@
         <v>11</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D425" s="9">
         <v>2013</v>
@@ -37267,7 +37503,7 @@
         <v>11</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D426" s="9">
         <v>2014</v>
@@ -37340,7 +37576,7 @@
         <v>11</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D427" s="9">
         <v>2015</v>
@@ -37411,7 +37647,7 @@
         <v>11</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D428" s="9">
         <v>2016</v>
@@ -37482,7 +37718,7 @@
         <v>11</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D429" s="9">
         <v>2017</v>
@@ -37551,7 +37787,7 @@
         <v>11</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D430" s="21">
         <v>2018</v>
@@ -37630,4 +37866,767 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97B187-59BF-4EE0-9142-DC329836E18B}">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="88"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="69"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="66"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>39</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="69"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1998</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="66"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1999</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="69"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="66"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="69"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="66"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>39</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="69"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="66"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="69"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="66"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="66"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>39</v>
+      </c>
+      <c r="B17" s="11">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="69"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="66"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>39</v>
+      </c>
+      <c r="B19" s="11">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="69"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="66"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>39</v>
+      </c>
+      <c r="B21" s="11">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="69"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="66"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>39</v>
+      </c>
+      <c r="B23" s="19">
+        <v>11</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="21">
+        <v>2018</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dollarization in Ecuador/data.xlsx
+++ b/Dollarization in Ecuador/data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="854" documentId="11_C4DAEDFF21BB444C16CD14F5761C8DCA382D0042" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0791A69A-5997-4DC6-B06A-F681E3B4C2DD}"/>
   <bookViews>
-    <workbookView xWindow="-26415" yWindow="5505" windowWidth="38700" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="38700" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATA" sheetId="1" r:id="rId1"/>
@@ -8870,10 +8870,10 @@
   <dimension ref="A1:AF432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T405" sqref="T405"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
